--- a/scripts/users_list.xlsx
+++ b/scripts/users_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aparna/PycharmProjects/Acme/AcmeData/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DFF4FDC-35D3-7645-BC35-58A90DDEC6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC838813-7B3F-B546-8A62-F20A2C3B6E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1920" windowWidth="27240" windowHeight="15760" xr2:uid="{197E9CD4-5261-6A44-8A30-D31781B8C3A7}"/>
+    <workbookView xWindow="1560" yWindow="580" windowWidth="27240" windowHeight="15760" xr2:uid="{197E9CD4-5261-6A44-8A30-D31781B8C3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>active</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t>Likes emojis üòä</t>
+  </si>
+  <si>
     <t>Advanced Support - CE</t>
   </si>
   <si>
@@ -106,57 +112,6 @@
   </si>
   <si>
     <t>['subscription_silver', 'product_a', 'chef_dequipe', 'plan_gold', 'no_csat']</t>
-  </si>
-  <si>
-    <t>Aubrey Kaine - CE</t>
-  </si>
-  <si>
-    <t>aubreykaine00@example.com</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t>Sales - CE</t>
-  </si>
-  <si>
-    <t>plan_silver</t>
-  </si>
-  <si>
-    <t>natusmolestiasea</t>
-  </si>
-  <si>
-    <t>Francis Kind - CE</t>
-  </si>
-  <si>
-    <t>franciskind.zen@example.com</t>
-  </si>
-  <si>
-    <t>nobisconsecteturenim</t>
-  </si>
-  <si>
-    <t>Bunk Moreland - CE</t>
-  </si>
-  <si>
-    <t>bunkmoreland410@example.com</t>
-  </si>
-  <si>
-    <t>Product Support - CE</t>
-  </si>
-  <si>
-    <t>nisiquodperspiciatis</t>
-  </si>
-  <si>
-    <t>Lester Freamon - CE</t>
-  </si>
-  <si>
-    <t>lazendesk@example.com</t>
-  </si>
-  <si>
-    <t>etplaceatcupiditate</t>
-  </si>
-  <si>
-    <t>subscription</t>
   </si>
 </sst>
 </file>
@@ -509,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CF2B94-A09B-DC49-9449-028721EB7044}">
-  <dimension ref="B1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,285 +476,306 @@
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>7524917807</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10838812608</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
-        <v>7524917807</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10838812608</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="b">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>7858057707</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2208998928</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>7858057707</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>2208998928</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7858067547</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6894522008</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>7858067547</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>6894522008</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>7858071167</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>10838798148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>7858083167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>10838814908</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>7858096207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>10778642047</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>7858111247</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>15976972808</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/users_list.xlsx
+++ b/scripts/users_list.xlsx
@@ -403,1027 +403,1027 @@
     <t>3Cinteractive</t>
   </si>
   <si>
-    <t>Jennifer Hansen - CE - aparna</t>
-  </si>
-  <si>
-    <t>Kate Hoffman - CE - aparna</t>
-  </si>
-  <si>
-    <t>Anna Dalby - CE - aparna</t>
-  </si>
-  <si>
-    <t>Aubrey Kaine - CE - aparna</t>
-  </si>
-  <si>
-    <t>Francis Kind - CE - aparna</t>
-  </si>
-  <si>
-    <t>Bunk Moreland - CE - aparna</t>
-  </si>
-  <si>
-    <t>Lester Freamon - CE - aparna</t>
-  </si>
-  <si>
-    <t>Marlo Stanfield - CE - aparna</t>
-  </si>
-  <si>
-    <t>Emma Lee - CE - aparna</t>
-  </si>
-  <si>
-    <t>Shirin Poeplinghaus - CE - aparna</t>
-  </si>
-  <si>
-    <t>Jimmy McNulty - CE - aparna</t>
-  </si>
-  <si>
-    <t>Lisa Roth - CE - aparna</t>
-  </si>
-  <si>
-    <t>Sample customer - aparna</t>
-  </si>
-  <si>
-    <t>Em Cino - CE - aparna</t>
-  </si>
-  <si>
-    <t>Samira Miller - CE - aparna</t>
-  </si>
-  <si>
-    <t>Karen Biscopink - CE - aparna</t>
-  </si>
-  <si>
-    <t>Robert - aparna</t>
-  </si>
-  <si>
-    <t>Jen Doe - CE - aparna</t>
-  </si>
-  <si>
-    <t>Charles Nadeau - CE - aparna</t>
-  </si>
-  <si>
-    <t>Laduma Nguyuza - aparna</t>
-  </si>
-  <si>
-    <t>Fred Flora - CE - aparna</t>
-  </si>
-  <si>
-    <t>Jackson Davis - CE - aparna</t>
-  </si>
-  <si>
-    <t>Megan Browning - CE - aparna</t>
-  </si>
-  <si>
-    <t>Mark Banuelos - CE - aparna</t>
-  </si>
-  <si>
-    <t>Clark Green - CE - aparna</t>
-  </si>
-  <si>
-    <t>Nick Lopez - aparna</t>
-  </si>
-  <si>
-    <t>Alexander Migale - CE - aparna</t>
-  </si>
-  <si>
-    <t>Beatrix Abbott - CE - aparna</t>
-  </si>
-  <si>
-    <t>Cruz Smith - CE - aparna</t>
-  </si>
-  <si>
-    <t>Courtney Benjamin-CE - aparna</t>
-  </si>
-  <si>
-    <t>Austin Haukinz - CE - aparna</t>
-  </si>
-  <si>
-    <t>Aza Coward - CE - aparna</t>
-  </si>
-  <si>
-    <t>Eat Well Support - aparna</t>
-  </si>
-  <si>
-    <t>Malcom - aparna</t>
-  </si>
-  <si>
-    <t>Chris Meyers - aparna</t>
-  </si>
-  <si>
-    <t>John Smith - aparna</t>
-  </si>
-  <si>
-    <t>george - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 23590364 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 96375178 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 7277679 - aparna</t>
-  </si>
-  <si>
-    <t>Test - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 88770589 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 56361663 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 44363997 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 79609699 - aparna</t>
-  </si>
-  <si>
-    <t>George - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 86361647 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 9069214 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 33491187 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 42889124 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 85664065 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 11995833 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 17497796 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 26613524 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 56042054 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 14343384 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 13789444 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 87985401 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 14272733 - aparna</t>
-  </si>
-  <si>
-    <t>Efren - aparna</t>
-  </si>
-  <si>
-    <t>Sera Tajima - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 41764726 - aparna</t>
-  </si>
-  <si>
-    <t>Shirin - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 64655414 - aparna</t>
-  </si>
-  <si>
-    <t>Caller Unknown - aparna</t>
-  </si>
-  <si>
-    <t>Amanda Gamblin - CE - aparna</t>
-  </si>
-  <si>
-    <t>Agamblintest - aparna</t>
-  </si>
-  <si>
-    <t>Laurence Hardie - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 85725979 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 64846162 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 72934791 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 80224582 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 17565537 - aparna</t>
-  </si>
-  <si>
-    <t>Sam Smitty - aparna</t>
-  </si>
-  <si>
-    <t>65092144444_flagged_for_inspection - aparna</t>
-  </si>
-  <si>
-    <t>Benoit Duval - aparna</t>
-  </si>
-  <si>
-    <t>Jane Smith - aparna</t>
-  </si>
-  <si>
-    <t>Leister - aparna</t>
-  </si>
-  <si>
-    <t>1 707 553-3856 - aparna</t>
-  </si>
-  <si>
-    <t>Liz Roth - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 608 628-4363 - aparna</t>
-  </si>
-  <si>
-    <t>Qwerty - aparna</t>
-  </si>
-  <si>
-    <t>Cookie Monster - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 17886942 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 81100780 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 86431441 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 9729838 - aparna</t>
-  </si>
-  <si>
-    <t>Tom Cruise - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 310 897-9537 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 353 87 352 5778 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 92968055 - aparna</t>
-  </si>
-  <si>
-    <t>Text user: 61429565663 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 56053843 - aparna</t>
-  </si>
-  <si>
-    <t>Customer Name - aparna</t>
-  </si>
-  <si>
-    <t>Henry Block - aparna</t>
-  </si>
-  <si>
-    <t>Tom Smith - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 51823672 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 80254017 - aparna</t>
-  </si>
-  <si>
-    <t>Bob Smith - aparna</t>
-  </si>
-  <si>
-    <t>Silvia Mueller - aparna</t>
-  </si>
-  <si>
-    <t>Leo Steim - aparna</t>
-  </si>
-  <si>
-    <t>Fabian Flor - aparna</t>
-  </si>
-  <si>
-    <t>Mark Smith - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 11789822 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 89800926 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 85313381 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 55191318 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 52158329 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 415 653-0291 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 415 449-7593 - aparna</t>
-  </si>
-  <si>
-    <t>René F. Lisi - aparna</t>
-  </si>
-  <si>
-    <t>Sara Gholampour - CE - aparna</t>
-  </si>
-  <si>
-    <t>Andy J - aparna</t>
-  </si>
-  <si>
-    <t>Mary Poeplinghaus - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 71862868 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 74360839 - aparna</t>
-  </si>
-  <si>
-    <t>Stephanie Pellegrino - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 90093682 - aparna</t>
-  </si>
-  <si>
-    <t>Robert Smith - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 96208453 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 66678920 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 33560748 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 51955624 - aparna</t>
-  </si>
-  <si>
-    <t>Austin Example - aparna</t>
-  </si>
-  <si>
-    <t>Jim Carrey - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 45740320 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 68618381 - aparna</t>
-  </si>
-  <si>
-    <t>James Smith - aparna</t>
-  </si>
-  <si>
-    <t>Clark Kent - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 23124403 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 2178359 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 20722305 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 59350619 - aparna</t>
-  </si>
-  <si>
-    <t>Laurence Hardie - aparna</t>
-  </si>
-  <si>
-    <t>INTERNAL Aza - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 37642204 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 54490895 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 80562267 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 70192527 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 29751713 - aparna</t>
-  </si>
-  <si>
-    <t>John Cruz - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 90758725 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 28141507 - aparna</t>
-  </si>
-  <si>
-    <t>Amanda Parker - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 1524816810 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 3070227 - aparna</t>
-  </si>
-  <si>
-    <t>Della Kartessan - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 75987045 - aparna</t>
-  </si>
-  <si>
-    <t>Thomas Paul - aparna</t>
-  </si>
-  <si>
-    <t>Megan - aparna</t>
-  </si>
-  <si>
-    <t>Text user: 61419351670 - aparna</t>
-  </si>
-  <si>
-    <t>Text user: 61432370089 - aparna</t>
-  </si>
-  <si>
-    <t>Trash End USer - aparna</t>
-  </si>
-  <si>
-    <t>Anyemailhere - aparna</t>
-  </si>
-  <si>
-    <t>Nicole Foxworth - aparna</t>
-  </si>
-  <si>
-    <t>Caller 44 20 8068 5829 - aparna</t>
-  </si>
-  <si>
-    <t>Maggie McGinnis - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 65932330 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 81779164 - aparna</t>
-  </si>
-  <si>
-    <t>Danica Beaniza - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 77710488 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 30098570 - aparna</t>
-  </si>
-  <si>
-    <t>Fashion Fan - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 60587126 - aparna</t>
-  </si>
-  <si>
-    <t>Mark Banuelos - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 38482122 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 8901240 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 19811473 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 62704675 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 64817955 - aparna</t>
-  </si>
-  <si>
-    <t>Tim - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 16879696 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 50013801 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 9425483 - aparna</t>
-  </si>
-  <si>
-    <t>Jackie - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 33536861 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 11296330 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 36380365 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 65067750 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 66768566 - aparna</t>
-  </si>
-  <si>
-    <t>Evan Felker - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 94290488 - aparna</t>
-  </si>
-  <si>
-    <t>Ivan - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 30092060 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 353 83 163 4311 - aparna</t>
-  </si>
-  <si>
-    <t>Noreply - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 13225194 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 36464076 - aparna</t>
-  </si>
-  <si>
-    <t>Coupons.com - aparna</t>
-  </si>
-  <si>
-    <t>Kelly Star - aparna</t>
-  </si>
-  <si>
-    <t>Caller 353 1 691 7262 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 72297896 - aparna</t>
-  </si>
-  <si>
-    <t>Peetnik Rewards - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 46442722 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 23887137 - aparna</t>
-  </si>
-  <si>
-    <t>Juan Cruz - aparna</t>
-  </si>
-  <si>
-    <t>Roberto Aiello - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 1534128820 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 15475841 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 61 478 367 754 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 1534133467 - aparna</t>
-  </si>
-  <si>
-    <t>Text user: 6598372254 - aparna</t>
-  </si>
-  <si>
-    <t>Jane - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 93151541 - aparna</t>
-  </si>
-  <si>
-    <t>Hubert Miller - aparna</t>
-  </si>
-  <si>
-    <t>Bonnie Leib - aparna</t>
-  </si>
-  <si>
-    <t>Mary - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 80348219 - aparna</t>
-  </si>
-  <si>
-    <t>megan - aparna</t>
-  </si>
-  <si>
-    <t>Testing User - aparna</t>
-  </si>
-  <si>
-    <t>Hubert Müller - aparna</t>
-  </si>
-  <si>
-    <t>Jane Dough - CE - aparna</t>
-  </si>
-  <si>
-    <t>Ken Copeland - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 34397965 - aparna</t>
-  </si>
-  <si>
-    <t>Maury Povach - aparna</t>
-  </si>
-  <si>
-    <t>Kale Chip - CE - aparna</t>
-  </si>
-  <si>
-    <t>Joana Ferreira - CE - aparna</t>
-  </si>
-  <si>
-    <t>Sally - aparna</t>
-  </si>
-  <si>
-    <t>Alice - aparna</t>
-  </si>
-  <si>
-    <t>George Miller - aparna</t>
-  </si>
-  <si>
-    <t>John Smythe - aparna</t>
-  </si>
-  <si>
-    <t>Laurence - aparna</t>
-  </si>
-  <si>
-    <t>John Example - aparna</t>
-  </si>
-  <si>
-    <t>Sara Gholampour - aparna</t>
-  </si>
-  <si>
-    <t>Cait Glass - aparna</t>
-  </si>
-  <si>
-    <t>Insoo Young - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 49508977 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 37980980 - aparna</t>
-  </si>
-  <si>
-    <t>Mary Miller - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 47731621 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 45821848 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 67246172 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 656 817-5970 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 80479029 - aparna</t>
-  </si>
-  <si>
-    <t>Juan Smith - aparna</t>
-  </si>
-  <si>
-    <t>Susie Williams - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 51608988 - aparna</t>
-  </si>
-  <si>
-    <t>aza says... - aparna</t>
-  </si>
-  <si>
-    <t>Ruth Cockshott - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 91877377 - aparna</t>
-  </si>
-  <si>
-    <t>Fake Customer - aparna</t>
-  </si>
-  <si>
-    <t>Wallace Example - aparna</t>
-  </si>
-  <si>
-    <t>Wallace Wears - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 47300528 - aparna</t>
-  </si>
-  <si>
-    <t>Laura Adams - CE - aparna</t>
-  </si>
-  <si>
-    <t>Ferdi Joannis - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 62157506 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 23270136 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 97813388 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 46214649 - aparna</t>
-  </si>
-  <si>
-    <t>Jeshadp - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 41363249 - aparna</t>
-  </si>
-  <si>
-    <t>Chloe Customer - Laura CE - aparna</t>
-  </si>
-  <si>
-    <t>Paul Geraghty - CE - aparna</t>
-  </si>
-  <si>
-    <t>Luke Hadley92 - aparna</t>
-  </si>
-  <si>
-    <t>Jpalkhiwalla - aparna</t>
-  </si>
-  <si>
-    <t>Matteoberin - aparna</t>
-  </si>
-  <si>
-    <t>Frank Murray - aparna</t>
-  </si>
-  <si>
-    <t>Malachi Briggs - aparna</t>
-  </si>
-  <si>
-    <t>Sara Libra - aparna</t>
-  </si>
-  <si>
-    <t>Sow Tang - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 22509194 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 62184340 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 45596237 - aparna</t>
-  </si>
-  <si>
-    <t>Dbee - aparna</t>
-  </si>
-  <si>
-    <t>1 970 819-5246 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 64987340 - aparna</t>
-  </si>
-  <si>
-    <t>Hello - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 78113833 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 71345929 - aparna</t>
-  </si>
-  <si>
-    <t>Amanda Editor - aparna</t>
-  </si>
-  <si>
-    <t>Diana - aparna</t>
-  </si>
-  <si>
-    <t>Smove Customer - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 16019904 - aparna</t>
-  </si>
-  <si>
-    <t>Fabio Guarrasi - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 6752713 - aparna</t>
-  </si>
-  <si>
-    <t>Ford Dealership L.A. - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 89762738 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 53772329 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 29123615 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 33745935 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 86104276 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 86143413 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 36763002 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 16157568 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 353 85 821 9003 - aparna</t>
-  </si>
-  <si>
-    <t>Kaitlyn Skalet - aparna</t>
-  </si>
-  <si>
-    <t>Amanda Jones - aparna</t>
-  </si>
-  <si>
-    <t>Peter Agent - aparna</t>
-  </si>
-  <si>
-    <t>Amanda Yu - CE - aparna</t>
-  </si>
-  <si>
-    <t>Dinky Skalet - CE - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 90064273 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 6435951 - aparna</t>
-  </si>
-  <si>
-    <t>Dwight Schrute - CE - aparna</t>
-  </si>
-  <si>
-    <t>Tommy Bahama - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 707 701-3321 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 35998615 - aparna</t>
-  </si>
-  <si>
-    <t>RT - aparna</t>
-  </si>
-  <si>
-    <t>Mdbeaniza - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 801 268-0727 - aparna</t>
-  </si>
-  <si>
-    <t>Btillon246 - aparna</t>
-  </si>
-  <si>
-    <t>No Email - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 24342869 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 33 6 99 63 65 78 - aparna</t>
-  </si>
-  <si>
-    <t>44 7833 591325 - aparna</t>
-  </si>
-  <si>
-    <t>Dotty Dumpling - CE - aparna</t>
-  </si>
-  <si>
-    <t>raiello@zendesk.com - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 96067358 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 42468770 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 69552426 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 68332357 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 61583225 - aparna</t>
-  </si>
-  <si>
-    <t>Laura Scrimshaw - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 75877319 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 353 87 954 1162 - aparna</t>
-  </si>
-  <si>
-    <t>Anyemailaddress - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 39653357 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 95601420 - aparna</t>
-  </si>
-  <si>
-    <t>Adam Meehan - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 2878374 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 90901574 - aparna</t>
-  </si>
-  <si>
-    <t>Jesse - aparna</t>
-  </si>
-  <si>
-    <t>Paul Geraghty - aparna</t>
-  </si>
-  <si>
-    <t>Ken Copeland - aparna</t>
-  </si>
-  <si>
-    <t>Chloe Customer - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 14363488 - aparna</t>
-  </si>
-  <si>
-    <t>Fred Flintstone - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 62892710 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 31298744 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 32146013 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 3510063 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 920 427-2381 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 56987079 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 30028211 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 47060547 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 93468409 - aparna</t>
-  </si>
-  <si>
-    <t>Caller 1 914 522-3028 - aparna</t>
-  </si>
-  <si>
-    <t>Hi - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 57164535 - aparna</t>
-  </si>
-  <si>
-    <t>Visitor 36815357 - aparna</t>
-  </si>
-  <si>
-    <t>james - aparna</t>
+    <t>Jennifer Hansen - CE</t>
+  </si>
+  <si>
+    <t>Kate Hoffman - CE</t>
+  </si>
+  <si>
+    <t>Anna Dalby - CE</t>
+  </si>
+  <si>
+    <t>Aubrey Kaine - CE</t>
+  </si>
+  <si>
+    <t>Francis Kind - CE</t>
+  </si>
+  <si>
+    <t>Bunk Moreland - CE</t>
+  </si>
+  <si>
+    <t>Lester Freamon - CE</t>
+  </si>
+  <si>
+    <t>Marlo Stanfield - CE</t>
+  </si>
+  <si>
+    <t>Emma Lee - CE</t>
+  </si>
+  <si>
+    <t>Shirin Poeplinghaus - CE</t>
+  </si>
+  <si>
+    <t>Jimmy McNulty - CE</t>
+  </si>
+  <si>
+    <t>Lisa Roth - CE</t>
+  </si>
+  <si>
+    <t>Sample customer</t>
+  </si>
+  <si>
+    <t>Em Cino - CE</t>
+  </si>
+  <si>
+    <t>Samira Miller - CE</t>
+  </si>
+  <si>
+    <t>Karen Biscopink - CE</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Jen Doe - CE</t>
+  </si>
+  <si>
+    <t>Charles Nadeau - CE</t>
+  </si>
+  <si>
+    <t>Laduma Nguyuza</t>
+  </si>
+  <si>
+    <t>Fred Flora - CE</t>
+  </si>
+  <si>
+    <t>Jackson Davis - CE</t>
+  </si>
+  <si>
+    <t>Megan Browning - CE</t>
+  </si>
+  <si>
+    <t>Mark Banuelos - CE</t>
+  </si>
+  <si>
+    <t>Clark Green - CE</t>
+  </si>
+  <si>
+    <t>Nick Lopez</t>
+  </si>
+  <si>
+    <t>Alexander Migale - CE</t>
+  </si>
+  <si>
+    <t>Beatrix Abbott - CE</t>
+  </si>
+  <si>
+    <t>Cruz Smith - CE</t>
+  </si>
+  <si>
+    <t>Courtney Benjamin-CE</t>
+  </si>
+  <si>
+    <t>Austin Haukinz - CE</t>
+  </si>
+  <si>
+    <t>Aza Coward - CE</t>
+  </si>
+  <si>
+    <t>Eat Well Support</t>
+  </si>
+  <si>
+    <t>Malcom</t>
+  </si>
+  <si>
+    <t>Chris Meyers</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>Visitor 23590364</t>
+  </si>
+  <si>
+    <t>Visitor 96375178</t>
+  </si>
+  <si>
+    <t>Visitor 7277679</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Visitor 88770589</t>
+  </si>
+  <si>
+    <t>Visitor 56361663</t>
+  </si>
+  <si>
+    <t>Visitor 44363997</t>
+  </si>
+  <si>
+    <t>Visitor 79609699</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Visitor 86361647</t>
+  </si>
+  <si>
+    <t>Visitor 9069214</t>
+  </si>
+  <si>
+    <t>Visitor 33491187</t>
+  </si>
+  <si>
+    <t>Visitor 42889124</t>
+  </si>
+  <si>
+    <t>Visitor 85664065</t>
+  </si>
+  <si>
+    <t>Visitor 11995833</t>
+  </si>
+  <si>
+    <t>Visitor 17497796</t>
+  </si>
+  <si>
+    <t>Visitor 26613524</t>
+  </si>
+  <si>
+    <t>Visitor 56042054</t>
+  </si>
+  <si>
+    <t>Visitor 14343384</t>
+  </si>
+  <si>
+    <t>Visitor 13789444</t>
+  </si>
+  <si>
+    <t>Visitor 87985401</t>
+  </si>
+  <si>
+    <t>Visitor 14272733</t>
+  </si>
+  <si>
+    <t>Efren</t>
+  </si>
+  <si>
+    <t>Sera Tajima - CE</t>
+  </si>
+  <si>
+    <t>Visitor 41764726</t>
+  </si>
+  <si>
+    <t>Shirin</t>
+  </si>
+  <si>
+    <t>Visitor 64655414</t>
+  </si>
+  <si>
+    <t>Caller Unknown</t>
+  </si>
+  <si>
+    <t>Amanda Gamblin - CE</t>
+  </si>
+  <si>
+    <t>Agamblintest</t>
+  </si>
+  <si>
+    <t>Laurence Hardie - CE</t>
+  </si>
+  <si>
+    <t>Visitor 85725979</t>
+  </si>
+  <si>
+    <t>Visitor 64846162</t>
+  </si>
+  <si>
+    <t>Visitor 72934791</t>
+  </si>
+  <si>
+    <t>Visitor 80224582</t>
+  </si>
+  <si>
+    <t>Visitor 17565537</t>
+  </si>
+  <si>
+    <t>Sam Smitty</t>
+  </si>
+  <si>
+    <t>65092144444_flagged_for_inspection</t>
+  </si>
+  <si>
+    <t>Benoit Duval</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Leister</t>
+  </si>
+  <si>
+    <t>1 707 553-3856</t>
+  </si>
+  <si>
+    <t>Liz Roth</t>
+  </si>
+  <si>
+    <t>Caller 1 608 628-4363</t>
+  </si>
+  <si>
+    <t>Qwerty</t>
+  </si>
+  <si>
+    <t>Cookie Monster</t>
+  </si>
+  <si>
+    <t>Visitor 17886942</t>
+  </si>
+  <si>
+    <t>Visitor 81100780</t>
+  </si>
+  <si>
+    <t>Visitor 86431441</t>
+  </si>
+  <si>
+    <t>Visitor 9729838</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>Caller 1 310 897-9537</t>
+  </si>
+  <si>
+    <t>Caller 353 87 352 5778</t>
+  </si>
+  <si>
+    <t>Visitor 92968055</t>
+  </si>
+  <si>
+    <t>Text user: 61429565663</t>
+  </si>
+  <si>
+    <t>Visitor 56053843</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Henry Block</t>
+  </si>
+  <si>
+    <t>Tom Smith</t>
+  </si>
+  <si>
+    <t>Visitor 51823672</t>
+  </si>
+  <si>
+    <t>Visitor 80254017</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Silvia Mueller</t>
+  </si>
+  <si>
+    <t>Leo Steim</t>
+  </si>
+  <si>
+    <t>Fabian Flor</t>
+  </si>
+  <si>
+    <t>Mark Smith</t>
+  </si>
+  <si>
+    <t>Visitor 11789822</t>
+  </si>
+  <si>
+    <t>Visitor 89800926</t>
+  </si>
+  <si>
+    <t>Visitor 85313381</t>
+  </si>
+  <si>
+    <t>Visitor 55191318</t>
+  </si>
+  <si>
+    <t>Visitor 52158329</t>
+  </si>
+  <si>
+    <t>Caller 1 415 653-0291</t>
+  </si>
+  <si>
+    <t>Caller 1 415 449-7593</t>
+  </si>
+  <si>
+    <t>René F. Lisi</t>
+  </si>
+  <si>
+    <t>Sara Gholampour - CE</t>
+  </si>
+  <si>
+    <t>Andy J</t>
+  </si>
+  <si>
+    <t>Mary Poeplinghaus</t>
+  </si>
+  <si>
+    <t>Visitor 71862868</t>
+  </si>
+  <si>
+    <t>Visitor 74360839</t>
+  </si>
+  <si>
+    <t>Stephanie Pellegrino - CE</t>
+  </si>
+  <si>
+    <t>Visitor 90093682</t>
+  </si>
+  <si>
+    <t>Robert Smith</t>
+  </si>
+  <si>
+    <t>Visitor 96208453</t>
+  </si>
+  <si>
+    <t>Visitor 66678920</t>
+  </si>
+  <si>
+    <t>Visitor 33560748</t>
+  </si>
+  <si>
+    <t>Visitor 51955624</t>
+  </si>
+  <si>
+    <t>Austin Example</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>Visitor 45740320</t>
+  </si>
+  <si>
+    <t>Visitor 68618381</t>
+  </si>
+  <si>
+    <t>James Smith</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Visitor 23124403</t>
+  </si>
+  <si>
+    <t>Visitor 2178359</t>
+  </si>
+  <si>
+    <t>Visitor 20722305</t>
+  </si>
+  <si>
+    <t>Visitor 59350619</t>
+  </si>
+  <si>
+    <t>Laurence Hardie</t>
+  </si>
+  <si>
+    <t>INTERNAL Aza</t>
+  </si>
+  <si>
+    <t>Visitor 37642204</t>
+  </si>
+  <si>
+    <t>Visitor 54490895</t>
+  </si>
+  <si>
+    <t>Visitor 80562267</t>
+  </si>
+  <si>
+    <t>Visitor 70192527</t>
+  </si>
+  <si>
+    <t>Visitor 29751713</t>
+  </si>
+  <si>
+    <t>John Cruz</t>
+  </si>
+  <si>
+    <t>Visitor 90758725</t>
+  </si>
+  <si>
+    <t>Visitor 28141507</t>
+  </si>
+  <si>
+    <t>Amanda Parker</t>
+  </si>
+  <si>
+    <t>Visitor 1524816810</t>
+  </si>
+  <si>
+    <t>Visitor 3070227</t>
+  </si>
+  <si>
+    <t>Della Kartessan - CE</t>
+  </si>
+  <si>
+    <t>Visitor 75987045</t>
+  </si>
+  <si>
+    <t>Thomas Paul</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Text user: 61419351670</t>
+  </si>
+  <si>
+    <t>Text user: 61432370089</t>
+  </si>
+  <si>
+    <t>Trash End USer</t>
+  </si>
+  <si>
+    <t>Anyemailhere</t>
+  </si>
+  <si>
+    <t>Nicole Foxworth</t>
+  </si>
+  <si>
+    <t>Caller 44 20 8068 5829</t>
+  </si>
+  <si>
+    <t>Maggie McGinnis</t>
+  </si>
+  <si>
+    <t>Visitor 65932330</t>
+  </si>
+  <si>
+    <t>Visitor 81779164</t>
+  </si>
+  <si>
+    <t>Danica Beaniza - CE</t>
+  </si>
+  <si>
+    <t>Visitor 77710488</t>
+  </si>
+  <si>
+    <t>Visitor 30098570</t>
+  </si>
+  <si>
+    <t>Fashion Fan</t>
+  </si>
+  <si>
+    <t>Visitor 60587126</t>
+  </si>
+  <si>
+    <t>Mark Banuelos</t>
+  </si>
+  <si>
+    <t>Visitor 38482122</t>
+  </si>
+  <si>
+    <t>Visitor 8901240</t>
+  </si>
+  <si>
+    <t>Visitor 19811473</t>
+  </si>
+  <si>
+    <t>Visitor 62704675</t>
+  </si>
+  <si>
+    <t>Visitor 64817955</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Visitor 16879696</t>
+  </si>
+  <si>
+    <t>Visitor 50013801</t>
+  </si>
+  <si>
+    <t>Visitor 9425483</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Visitor 33536861</t>
+  </si>
+  <si>
+    <t>Visitor 11296330</t>
+  </si>
+  <si>
+    <t>Visitor 36380365</t>
+  </si>
+  <si>
+    <t>Visitor 65067750</t>
+  </si>
+  <si>
+    <t>Visitor 66768566</t>
+  </si>
+  <si>
+    <t>Evan Felker</t>
+  </si>
+  <si>
+    <t>Visitor 94290488</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Visitor 30092060</t>
+  </si>
+  <si>
+    <t>Caller 353 83 163 4311</t>
+  </si>
+  <si>
+    <t>Noreply</t>
+  </si>
+  <si>
+    <t>Visitor 13225194</t>
+  </si>
+  <si>
+    <t>Visitor 36464076</t>
+  </si>
+  <si>
+    <t>Coupons.com</t>
+  </si>
+  <si>
+    <t>Kelly Star</t>
+  </si>
+  <si>
+    <t>Caller 353 1 691 7262</t>
+  </si>
+  <si>
+    <t>Visitor 72297896</t>
+  </si>
+  <si>
+    <t>Peetnik Rewards</t>
+  </si>
+  <si>
+    <t>Visitor 46442722</t>
+  </si>
+  <si>
+    <t>Visitor 23887137</t>
+  </si>
+  <si>
+    <t>Juan Cruz</t>
+  </si>
+  <si>
+    <t>Roberto Aiello</t>
+  </si>
+  <si>
+    <t>Visitor 1534128820</t>
+  </si>
+  <si>
+    <t>Visitor 15475841</t>
+  </si>
+  <si>
+    <t>Caller 61 478 367 754</t>
+  </si>
+  <si>
+    <t>Visitor 1534133467</t>
+  </si>
+  <si>
+    <t>Text user: 6598372254</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Visitor 93151541</t>
+  </si>
+  <si>
+    <t>Hubert Miller</t>
+  </si>
+  <si>
+    <t>Bonnie Leib</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Visitor 80348219</t>
+  </si>
+  <si>
+    <t>megan</t>
+  </si>
+  <si>
+    <t>Testing User</t>
+  </si>
+  <si>
+    <t>Hubert Müller</t>
+  </si>
+  <si>
+    <t>Jane Dough - CE</t>
+  </si>
+  <si>
+    <t>Ken Copeland - CE</t>
+  </si>
+  <si>
+    <t>Visitor 34397965</t>
+  </si>
+  <si>
+    <t>Maury Povach</t>
+  </si>
+  <si>
+    <t>Kale Chip - CE</t>
+  </si>
+  <si>
+    <t>Joana Ferreira - CE</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>George Miller</t>
+  </si>
+  <si>
+    <t>John Smythe</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>John Example</t>
+  </si>
+  <si>
+    <t>Sara Gholampour</t>
+  </si>
+  <si>
+    <t>Cait Glass</t>
+  </si>
+  <si>
+    <t>Insoo Young</t>
+  </si>
+  <si>
+    <t>Visitor 49508977</t>
+  </si>
+  <si>
+    <t>Visitor 37980980</t>
+  </si>
+  <si>
+    <t>Mary Miller</t>
+  </si>
+  <si>
+    <t>Visitor 47731621</t>
+  </si>
+  <si>
+    <t>Visitor 45821848</t>
+  </si>
+  <si>
+    <t>Visitor 67246172</t>
+  </si>
+  <si>
+    <t>Caller 1 656 817-5970</t>
+  </si>
+  <si>
+    <t>Visitor 80479029</t>
+  </si>
+  <si>
+    <t>Juan Smith</t>
+  </si>
+  <si>
+    <t>Susie Williams</t>
+  </si>
+  <si>
+    <t>Visitor 51608988</t>
+  </si>
+  <si>
+    <t>aza says...</t>
+  </si>
+  <si>
+    <t>Ruth Cockshott</t>
+  </si>
+  <si>
+    <t>Visitor 91877377</t>
+  </si>
+  <si>
+    <t>Fake Customer</t>
+  </si>
+  <si>
+    <t>Wallace Example</t>
+  </si>
+  <si>
+    <t>Wallace Wears</t>
+  </si>
+  <si>
+    <t>Visitor 47300528</t>
+  </si>
+  <si>
+    <t>Laura Adams - CE</t>
+  </si>
+  <si>
+    <t>Ferdi Joannis</t>
+  </si>
+  <si>
+    <t>Visitor 62157506</t>
+  </si>
+  <si>
+    <t>Visitor 23270136</t>
+  </si>
+  <si>
+    <t>Visitor 97813388</t>
+  </si>
+  <si>
+    <t>Visitor 46214649</t>
+  </si>
+  <si>
+    <t>Jeshadp</t>
+  </si>
+  <si>
+    <t>Visitor 41363249</t>
+  </si>
+  <si>
+    <t>Chloe Customer - Laura CE</t>
+  </si>
+  <si>
+    <t>Paul Geraghty - CE</t>
+  </si>
+  <si>
+    <t>Luke Hadley92</t>
+  </si>
+  <si>
+    <t>Jpalkhiwalla</t>
+  </si>
+  <si>
+    <t>Matteoberin</t>
+  </si>
+  <si>
+    <t>Frank Murray</t>
+  </si>
+  <si>
+    <t>Malachi Briggs</t>
+  </si>
+  <si>
+    <t>Sara Libra</t>
+  </si>
+  <si>
+    <t>Sow Tang</t>
+  </si>
+  <si>
+    <t>Visitor 22509194</t>
+  </si>
+  <si>
+    <t>Visitor 62184340</t>
+  </si>
+  <si>
+    <t>Visitor 45596237</t>
+  </si>
+  <si>
+    <t>Dbee</t>
+  </si>
+  <si>
+    <t>1 970 819-5246</t>
+  </si>
+  <si>
+    <t>Visitor 64987340</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Visitor 78113833</t>
+  </si>
+  <si>
+    <t>Visitor 71345929</t>
+  </si>
+  <si>
+    <t>Amanda Editor</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Smove Customer</t>
+  </si>
+  <si>
+    <t>Visitor 16019904</t>
+  </si>
+  <si>
+    <t>Fabio Guarrasi</t>
+  </si>
+  <si>
+    <t>Visitor 6752713</t>
+  </si>
+  <si>
+    <t>Ford Dealership L.A.</t>
+  </si>
+  <si>
+    <t>Visitor 89762738</t>
+  </si>
+  <si>
+    <t>Visitor 53772329</t>
+  </si>
+  <si>
+    <t>Visitor 29123615</t>
+  </si>
+  <si>
+    <t>Visitor 33745935</t>
+  </si>
+  <si>
+    <t>Visitor 86104276</t>
+  </si>
+  <si>
+    <t>Visitor 86143413</t>
+  </si>
+  <si>
+    <t>Visitor 36763002</t>
+  </si>
+  <si>
+    <t>Visitor 16157568</t>
+  </si>
+  <si>
+    <t>Caller 353 85 821 9003</t>
+  </si>
+  <si>
+    <t>Kaitlyn Skalet</t>
+  </si>
+  <si>
+    <t>Amanda Jones</t>
+  </si>
+  <si>
+    <t>Peter Agent</t>
+  </si>
+  <si>
+    <t>Amanda Yu - CE</t>
+  </si>
+  <si>
+    <t>Dinky Skalet - CE</t>
+  </si>
+  <si>
+    <t>Visitor 90064273</t>
+  </si>
+  <si>
+    <t>Visitor 6435951</t>
+  </si>
+  <si>
+    <t>Dwight Schrute - CE</t>
+  </si>
+  <si>
+    <t>Tommy Bahama</t>
+  </si>
+  <si>
+    <t>Caller 1 707 701-3321</t>
+  </si>
+  <si>
+    <t>Visitor 35998615</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Mdbeaniza</t>
+  </si>
+  <si>
+    <t>Caller 1 801 268-0727</t>
+  </si>
+  <si>
+    <t>Btillon246</t>
+  </si>
+  <si>
+    <t>No Email</t>
+  </si>
+  <si>
+    <t>Visitor 24342869</t>
+  </si>
+  <si>
+    <t>Caller 33 6 99 63 65 78</t>
+  </si>
+  <si>
+    <t>44 7833 591325</t>
+  </si>
+  <si>
+    <t>Dotty Dumpling - CE</t>
+  </si>
+  <si>
+    <t>raiello@zendesk.com</t>
+  </si>
+  <si>
+    <t>Visitor 96067358</t>
+  </si>
+  <si>
+    <t>Visitor 42468770</t>
+  </si>
+  <si>
+    <t>Visitor 69552426</t>
+  </si>
+  <si>
+    <t>Visitor 68332357</t>
+  </si>
+  <si>
+    <t>Visitor 61583225</t>
+  </si>
+  <si>
+    <t>Laura Scrimshaw</t>
+  </si>
+  <si>
+    <t>Visitor 75877319</t>
+  </si>
+  <si>
+    <t>Caller 353 87 954 1162</t>
+  </si>
+  <si>
+    <t>Anyemailaddress</t>
+  </si>
+  <si>
+    <t>Visitor 39653357</t>
+  </si>
+  <si>
+    <t>Visitor 95601420</t>
+  </si>
+  <si>
+    <t>Adam Meehan</t>
+  </si>
+  <si>
+    <t>Visitor 2878374</t>
+  </si>
+  <si>
+    <t>Visitor 90901574</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Paul Geraghty</t>
+  </si>
+  <si>
+    <t>Ken Copeland</t>
+  </si>
+  <si>
+    <t>Chloe Customer</t>
+  </si>
+  <si>
+    <t>Visitor 14363488</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Visitor 62892710</t>
+  </si>
+  <si>
+    <t>Visitor 31298744</t>
+  </si>
+  <si>
+    <t>Visitor 32146013</t>
+  </si>
+  <si>
+    <t>Visitor 3510063</t>
+  </si>
+  <si>
+    <t>Caller 1 920 427-2381</t>
+  </si>
+  <si>
+    <t>Visitor 56987079</t>
+  </si>
+  <si>
+    <t>Visitor 30028211</t>
+  </si>
+  <si>
+    <t>Visitor 47060547</t>
+  </si>
+  <si>
+    <t>Visitor 93468409</t>
+  </si>
+  <si>
+    <t>Caller 1 914 522-3028</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Visitor 57164535</t>
+  </si>
+  <si>
+    <t>Visitor 36815357</t>
+  </si>
+  <si>
+    <t>james</t>
   </si>
   <si>
     <t>jhansen@example.com</t>
@@ -1879,20 +1879,20 @@
     <t>agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Likes emojis </t>
+    <t>Likes emojis 😊</t>
   </si>
   <si>
     <t>Here are some notes about Clark
 8/9/18 - More notes</t>
   </si>
   <si>
-    <t>Azas End User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big fan of honey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mmmm donuts </t>
+    <t>Aza's 'End User'</t>
+  </si>
+  <si>
+    <t>Big fan of honey 🐝</t>
+  </si>
+  <si>
+    <t>Mmmm donuts 🍩</t>
   </si>
   <si>
     <t>Advanced Support - CE</t>
@@ -1913,16 +1913,16 @@
     <t>Promotions - CE</t>
   </si>
   <si>
-    <t>planunderscoregold</t>
-  </si>
-  <si>
-    <t>planunderscoresilver</t>
-  </si>
-  <si>
-    <t>planunderscorebronze</t>
-  </si>
-  <si>
-    <t>planunderscoreplatinum</t>
+    <t>plan_gold</t>
+  </si>
+  <si>
+    <t>plan_silver</t>
+  </si>
+  <si>
+    <t>plan_bronze</t>
+  </si>
+  <si>
+    <t>plan_platinum</t>
   </si>
   <si>
     <t>doloratdoloremque</t>
@@ -2945,67 +2945,67 @@
     <t>totamdolorsequi</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['subscriptionunderscoresilver', 'productunderscorea', 'chefunderscoredequipe', 'planunderscoregold', 'nounderscorecsat']</t>
-  </si>
-  <si>
-    <t>['gold', 'paid', 'sanunderscorefrancisco', 'co-op', 'vip']</t>
-  </si>
-  <si>
-    <t>['planunderscoregold', 'vipunderscoreuser', 'nounderscorecsat']</t>
-  </si>
-  <si>
-    <t>['tier1underscoresupport']</t>
-  </si>
-  <si>
-    <t>['vipunderscoreuser', 'emea', 'planunderscoresilver', 'resigned']</t>
-  </si>
-  <si>
-    <t>['planunderscoresilver']</t>
-  </si>
-  <si>
-    <t>['planunderscoregold', 'nounderscorecsat']</t>
-  </si>
-  <si>
-    <t>['planunderscoresilver', 'vip']</t>
-  </si>
-  <si>
-    <t>['sales', 'training']</t>
-  </si>
-  <si>
-    <t>['gold', 'emeaunderscorecustomer', 'london', 'europe']</t>
-  </si>
-  <si>
-    <t>['guideunderscoretier1underscoresection']</t>
-  </si>
-  <si>
-    <t>['planunderscoregold']</t>
-  </si>
-  <si>
-    <t>['vip']</t>
-  </si>
-  <si>
-    <t>['planunderscoregold', 'vip']</t>
-  </si>
-  <si>
-    <t>['resigned', 'planunderscoregold']</t>
-  </si>
-  <si>
-    <t>['east', 'vip']</t>
-  </si>
-  <si>
-    <t>['vipunderscoreuser', 'planunderscoregold']</t>
-  </si>
-  <si>
-    <t>['emea', 'eatwellunderscoreemployee']</t>
-  </si>
-  <si>
-    <t>['editor']</t>
-  </si>
-  <si>
-    <t>['itmanager']</t>
+    <t>aparna</t>
+  </si>
+  <si>
+    <t>subscription_silver, product_a, chef_dequipe, plan_gold, no_csat, aparna</t>
+  </si>
+  <si>
+    <t>gold, paid, san_francisco, co-op, vip, aparna</t>
+  </si>
+  <si>
+    <t>plan_gold, vip_user, no_csat, aparna</t>
+  </si>
+  <si>
+    <t>tier1_support, aparna</t>
+  </si>
+  <si>
+    <t>vip_user, emea, plan_silver, resigned, aparna</t>
+  </si>
+  <si>
+    <t>plan_silver, aparna</t>
+  </si>
+  <si>
+    <t>plan_gold, no_csat, aparna</t>
+  </si>
+  <si>
+    <t>plan_silver, vip, aparna</t>
+  </si>
+  <si>
+    <t>sales, training, aparna</t>
+  </si>
+  <si>
+    <t>gold, emea_customer, london, europe, aparna</t>
+  </si>
+  <si>
+    <t>guide_tier1_section, aparna</t>
+  </si>
+  <si>
+    <t>plan_gold, aparna</t>
+  </si>
+  <si>
+    <t>vip, aparna</t>
+  </si>
+  <si>
+    <t>plan_gold, vip, aparna</t>
+  </si>
+  <si>
+    <t>resigned, plan_gold, aparna</t>
+  </si>
+  <si>
+    <t>east, vip, aparna</t>
+  </si>
+  <si>
+    <t>vip_user, plan_gold, aparna</t>
+  </si>
+  <si>
+    <t>emea, eatwell_employee, aparna</t>
+  </si>
+  <si>
+    <t>editor, aparna</t>
+  </si>
+  <si>
+    <t>itmanager, aparna</t>
   </si>
 </sst>
 </file>
